--- a/com.linkedin/target/classes/Test_data.xlsx
+++ b/com.linkedin/target/classes/Test_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misol\eclipse-workspace\com.linkedin\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93178DD5-1700-4A2B-B331-086C1C4FC764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16125" windowHeight="5805"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,11 @@
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -38,17 +43,20 @@
   </si>
   <si>
     <t>im0592622763@gmail.com</t>
+  </si>
+  <si>
+    <t>o059262276</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,7 +64,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,12 +104,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -143,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +187,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,20 +431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -415,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -423,15 +468,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -441,34 +486,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4:A5" r:id="rId3" display="im0592622762@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4:A5" r:id="rId3" display="im0592622762@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
